--- a/SPPSApi/Doc/Template/FS0108_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS0108_Template.xlsx
@@ -415,7 +415,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1597,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1606,9 +1606,9 @@
     <col min="2" max="2" width="8.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1625,14 +1625,14 @@
       <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1661,14 +1661,14 @@
   <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.6328125" customWidth="1"/>
     <col min="4" max="4" width="9.90625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="22" max="22" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1693,14 +1693,14 @@
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:48" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1714,14 +1714,14 @@
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1779,13 +1779,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1843,13 +1843,13 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>

--- a/SPPSApi/Doc/Template/FS0108_Template.xlsx
+++ b/SPPSApi/Doc/Template/FS0108_Template.xlsx
@@ -415,7 +415,7 @@
         <xdr:cNvPr id="7" name="矩形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1597,7 +1597,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1606,9 +1606,9 @@
     <col min="2" max="2" width="8.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1625,14 +1625,14 @@
       <c r="D1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1661,14 +1661,14 @@
   <dimension ref="A1:AV5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.6328125" customWidth="1"/>
     <col min="4" max="4" width="9.90625" customWidth="1"/>
-    <col min="5" max="5" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
     <col min="22" max="22" width="10.26953125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1693,14 +1693,14 @@
       <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:48" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1714,14 +1714,14 @@
       <c r="D3" s="8">
         <v>1</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -1779,13 +1779,13 @@
         <v>2</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>46</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -1843,13 +1843,13 @@
         <v>21</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
